--- a/Final_data.xlsx
+++ b/Final_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E139AEF3-6BFB-43D1-B297-A772378D074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CE160-B2BC-4151-B4EC-04000B2313D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Autor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,24 +94,12 @@
     <t>South</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
     <t>East</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>Frankfurt</t>
   </si>
   <si>
@@ -110,9 +109,6 @@
     <t>Stuttgart</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>Dusseldorf</t>
   </si>
   <si>
@@ -186,6 +182,21 @@
   </si>
   <si>
     <t>Report was made by</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Worst</t>
   </si>
 </sst>
 </file>
@@ -637,25 +648,25 @@
         <v>1.48</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>4777</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>2.9</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <v>4.0999999999999996</v>
@@ -670,7 +681,7 @@
         <v>2900</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q2">
         <v>3219</v>
@@ -681,10 +692,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>3769495</v>
@@ -693,25 +704,25 @@
         <v>3.77</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>4227</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>9.1</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>1.8</v>
@@ -726,7 +737,7 @@
         <v>2400</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q3">
         <v>2764</v>
@@ -737,10 +748,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>763380</v>
@@ -749,25 +760,25 @@
         <v>0.76</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>3074</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>4.9000000000000004</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>6.1</v>
@@ -782,7 +793,7 @@
         <v>2300</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q4">
         <v>3108</v>
@@ -793,7 +804,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -805,25 +816,25 @@
         <v>0.64</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>3067</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>5.4</v>
@@ -838,7 +849,7 @@
         <v>2200</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q5">
         <v>3048</v>
@@ -849,10 +860,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>621877</v>
@@ -861,25 +872,25 @@
         <v>0.62</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>2860</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>6.5</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>5.2</v>
@@ -894,7 +905,7 @@
         <v>2070</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q6">
         <v>2891</v>
@@ -905,7 +916,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -917,25 +928,25 @@
         <v>0.52</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>2781</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>3.1</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L7">
         <v>4.7</v>
@@ -950,7 +961,7 @@
         <v>1740</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>2575</v>
@@ -961,10 +972,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>583393</v>
@@ -973,25 +984,25 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>2773</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>6.2</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <v>3.5</v>
@@ -1006,7 +1017,7 @@
         <v>1800</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>2579</v>
@@ -1017,10 +1028,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1085664</v>
@@ -1029,25 +1040,25 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>2680</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>6.9</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>3.7</v>
@@ -1062,7 +1073,7 @@
         <v>1950</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>2098</v>
@@ -1073,10 +1084,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>533875</v>
@@ -1085,25 +1096,25 @@
         <v>0.53</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>2615</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>5.4</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>5.3</v>
@@ -1118,7 +1129,7 @@
         <v>1749</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>2332</v>
@@ -1129,10 +1140,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1847253</v>
@@ -1141,25 +1152,25 @@
         <v>1.85</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>2446</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>6.9</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>2.9</v>
@@ -1174,7 +1185,7 @@
         <v>2150</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>2911</v>
@@ -1185,10 +1196,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>327913</v>
@@ -1197,25 +1208,25 @@
         <v>0.33</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>2322</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>5.4</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L12">
         <v>5.7</v>
@@ -1230,7 +1241,7 @@
         <v>1740</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>2308</v>
@@ -1241,10 +1252,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>587010</v>
@@ -1253,25 +1264,25 @@
         <v>0.59</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>2091</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>6.2</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>3.5</v>
@@ -1286,7 +1297,7 @@
         <v>1660</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>2537</v>
@@ -1297,10 +1308,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>247548</v>
@@ -1309,25 +1320,25 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>2086</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>5.6</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L14">
         <v>6.9</v>
@@ -1342,7 +1353,7 @@
         <v>1766</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>2506</v>
@@ -1353,10 +1364,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>593145</v>
@@ -1365,25 +1376,25 @@
         <v>0.59</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>1992</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H15">
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>5.7</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L15">
         <v>4.2</v>
@@ -1398,7 +1409,7 @@
         <v>1572</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q15">
         <v>1996</v>
@@ -1409,7 +1420,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1421,25 +1432,25 @@
         <v>0.31</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>1805</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>3.8</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L16">
         <v>7.3</v>
@@ -1454,7 +1465,7 @@
         <v>1850</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>2787</v>
@@ -1465,10 +1476,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>569352</v>
@@ -1477,25 +1488,25 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>1750</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>10.6</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1510,7 +1521,7 @@
         <v>1650</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>2102</v>
@@ -1521,10 +1532,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>555805</v>
@@ -1533,25 +1544,25 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>1693</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H18">
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>5.7</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L18">
         <v>4.2</v>
@@ -1566,7 +1577,7 @@
         <v>1541</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>2359</v>
@@ -1577,7 +1588,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1589,25 +1600,25 @@
         <v>0.23</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>1504</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>3.9</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L19">
         <v>7.5</v>
@@ -1622,7 +1633,7 @@
         <v>1870</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>2853</v>
@@ -1633,7 +1644,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1645,25 +1656,25 @@
         <v>0.16</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>1484</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H20">
         <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>4.0999999999999996</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L20">
         <v>9.5</v>
@@ -1678,7 +1689,7 @@
         <v>2090</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>2755</v>
@@ -1689,10 +1700,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>333786</v>
@@ -1701,25 +1712,25 @@
         <v>0.33</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -1734,7 +1745,7 @@
         <v>1610</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1958</v>
@@ -1745,10 +1756,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>238697</v>
@@ -1757,25 +1768,25 @@
         <v>0.24</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F22">
         <v>1182</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L22">
         <v>6.5</v>
@@ -1790,7 +1801,7 @@
         <v>1250</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>2047</v>
@@ -1801,10 +1812,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>114024</v>
@@ -1813,25 +1824,25 @@
         <v>0.11</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>1086</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>4.5999999999999996</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L23">
         <v>13</v>
@@ -1846,7 +1857,7 @@
         <v>1670</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>2134</v>
@@ -1857,10 +1868,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>217198</v>
@@ -1869,25 +1880,25 @@
         <v>0.22</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>1014</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L24">
         <v>7.1</v>
@@ -1902,7 +1913,7 @@
         <v>1624</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>2057</v>
@@ -1913,10 +1924,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>111407</v>
@@ -1925,25 +1936,25 @@
         <v>0.11</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>971</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H25">
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>5.4</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L25">
         <v>13.6</v>
@@ -1958,7 +1969,7 @@
         <v>1478</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>2737</v>
@@ -1969,10 +1980,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>179088</v>
@@ -1981,25 +1992,25 @@
         <v>0.18</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>956</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J26">
         <v>5.6</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L26">
         <v>8.9</v>
@@ -2014,7 +2025,7 @@
         <v>2130</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>2613</v>
@@ -2025,10 +2036,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>213981</v>
@@ -2037,25 +2048,25 @@
         <v>0.21</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>793</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H27">
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>5.4</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L27">
         <v>7.6</v>
@@ -2070,7 +2081,7 @@
         <v>1650</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>2040</v>
@@ -2097,10 +2108,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Final_data.xlsx
+++ b/Final_data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anzhu\Documents\Analysis\Deutschland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CE160-B2BC-4151-B4EC-04000B2313D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2149BA52-4037-4DBB-B1A4-B4C3EBEC730D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Autor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="53">
   <si>
     <t>city</t>
   </si>
@@ -176,12 +175,6 @@
   </si>
   <si>
     <t>Erfurt</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/calmasastone/</t>
-  </si>
-  <si>
-    <t>Report was made by</t>
   </si>
   <si>
     <t>High</t>
@@ -203,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +208,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,21 +242,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,25 +628,25 @@
         <v>1.48</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>4777</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>2.9</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>4.0999999999999996</v>
@@ -681,7 +661,7 @@
         <v>2900</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q2">
         <v>3219</v>
@@ -704,25 +684,25 @@
         <v>3.77</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>4227</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>9.1</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3">
         <v>1.8</v>
@@ -737,7 +717,7 @@
         <v>2400</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>2764</v>
@@ -760,25 +740,25 @@
         <v>0.76</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>3074</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>4.9000000000000004</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L4">
         <v>6.1</v>
@@ -793,7 +773,7 @@
         <v>2300</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4">
         <v>3108</v>
@@ -816,25 +796,25 @@
         <v>0.64</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>3067</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>3.6</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L5">
         <v>5.4</v>
@@ -849,7 +829,7 @@
         <v>2200</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>3048</v>
@@ -872,25 +852,25 @@
         <v>0.62</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2860</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>6.5</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>5.2</v>
@@ -905,7 +885,7 @@
         <v>2070</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>2891</v>
@@ -928,25 +908,25 @@
         <v>0.52</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2781</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7">
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>3.1</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>4.7</v>
@@ -961,7 +941,7 @@
         <v>1740</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>2575</v>
@@ -984,25 +964,25 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>2773</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>6.2</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8">
         <v>3.5</v>
@@ -1017,7 +997,7 @@
         <v>1800</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>2579</v>
@@ -1040,25 +1020,25 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2680</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>6.9</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>3.7</v>
@@ -1073,7 +1053,7 @@
         <v>1950</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>2098</v>
@@ -1096,25 +1076,25 @@
         <v>0.53</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>2615</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>5.4</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>5.3</v>
@@ -1129,7 +1109,7 @@
         <v>1749</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>2332</v>
@@ -1152,25 +1132,25 @@
         <v>1.85</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>2446</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>6.9</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11">
         <v>2.9</v>
@@ -1185,7 +1165,7 @@
         <v>2150</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>2911</v>
@@ -1208,25 +1188,25 @@
         <v>0.33</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>2322</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>5.4</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L12">
         <v>5.7</v>
@@ -1241,7 +1221,7 @@
         <v>1740</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>2308</v>
@@ -1264,25 +1244,25 @@
         <v>0.59</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>2091</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>6.2</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L13">
         <v>3.5</v>
@@ -1297,7 +1277,7 @@
         <v>1660</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>2537</v>
@@ -1320,25 +1300,25 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>2086</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>5.6</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>6.9</v>
@@ -1353,7 +1333,7 @@
         <v>1766</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>2506</v>
@@ -1376,25 +1356,25 @@
         <v>0.59</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>1992</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>5.7</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15">
         <v>4.2</v>
@@ -1409,7 +1389,7 @@
         <v>1572</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1996</v>
@@ -1432,25 +1412,25 @@
         <v>0.31</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>1805</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16">
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>3.8</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L16">
         <v>7.3</v>
@@ -1465,7 +1445,7 @@
         <v>1850</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>2787</v>
@@ -1488,25 +1468,25 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>1750</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H17">
         <v>37</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>10.6</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1521,7 +1501,7 @@
         <v>1650</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>2102</v>
@@ -1544,25 +1524,25 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>1693</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>5.7</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18">
         <v>4.2</v>
@@ -1577,7 +1557,7 @@
         <v>1541</v>
       </c>
       <c r="P18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>2359</v>
@@ -1600,25 +1580,25 @@
         <v>0.23</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>1504</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>3.9</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19">
         <v>7.5</v>
@@ -1633,7 +1613,7 @@
         <v>1870</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>2853</v>
@@ -1656,25 +1636,25 @@
         <v>0.16</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>1484</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>4.0999999999999996</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>9.5</v>
@@ -1689,7 +1669,7 @@
         <v>2090</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>2755</v>
@@ -1712,25 +1692,25 @@
         <v>0.33</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>1295</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21">
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -1745,7 +1725,7 @@
         <v>1610</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1958</v>
@@ -1768,25 +1748,25 @@
         <v>0.24</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>1182</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L22">
         <v>6.5</v>
@@ -1801,7 +1781,7 @@
         <v>1250</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>2047</v>
@@ -1824,25 +1804,25 @@
         <v>0.11</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>1086</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H23">
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>4.5999999999999996</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23">
         <v>13</v>
@@ -1857,7 +1837,7 @@
         <v>1670</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>2134</v>
@@ -1880,25 +1860,25 @@
         <v>0.22</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>1014</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24">
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L24">
         <v>7.1</v>
@@ -1913,7 +1893,7 @@
         <v>1624</v>
       </c>
       <c r="P24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>2057</v>
@@ -1936,25 +1916,25 @@
         <v>0.11</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>971</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25">
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>5.4</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L25">
         <v>13.6</v>
@@ -1969,7 +1949,7 @@
         <v>1478</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>2737</v>
@@ -1992,25 +1972,25 @@
         <v>0.18</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>956</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26">
         <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>5.6</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L26">
         <v>8.9</v>
@@ -2025,7 +2005,7 @@
         <v>2130</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>2613</v>
@@ -2048,25 +2028,25 @@
         <v>0.21</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>793</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27">
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>5.4</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>7.6</v>
@@ -2081,7 +2061,7 @@
         <v>1650</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>2040</v>
@@ -2093,33 +2073,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC0D2A-BC0A-42E3-9391-244FCC94B7CF}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tNAiLJsh8CRZGWEvo/AOjL5/z/vuJLDyiL2MKs75kblghkZw4J0QXchtRCYFqmSJ30GE2Ss6sDMGid1sqDSeMQ==" saltValue="Zo36B+uXlHzXVohuakCOOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{AD17C662-12E6-4C81-A590-E91CB77B89DA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>